--- a/biology/Biologie cellulaire et moléculaire/IntEnz/IntEnz.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/IntEnz/IntEnz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">IntEnz (de l'anglais Integrated relational Enzyme database) constitue la base de données relationnelle de référence de l'Union internationale de biochimie et de biologie moléculaire (IUBMB) décrivant les enzymes connues selon la nomenclature EC[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IntEnz (de l'anglais Integrated relational Enzyme database) constitue la base de données relationnelle de référence de l'Union internationale de biochimie et de biologie moléculaire (IUBMB) décrivant les enzymes connues selon la nomenclature EC.
 </t>
         </is>
       </c>
